--- a/doc/corpus-info.xlsx
+++ b/doc/corpus-info.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{610C1D30-2B6E-4E7E-B7A4-9DE7A35EECB5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D4FF8C-A3DE-4EB4-AEA0-1F79D3FD3E1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -315,12 +320,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -374,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -383,6 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -667,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="A1:E24"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +696,7 @@
     <col min="5" max="5" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -692,12 +706,12 @@
       <c r="C1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,8 +727,11 @@
       <c r="E2" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -730,8 +747,11 @@
       <c r="E3" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -747,8 +767,11 @@
       <c r="E4" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -764,8 +787,11 @@
       <c r="E5" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -781,9 +807,12 @@
       <c r="E6" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="G6" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1">
@@ -798,9 +827,12 @@
       <c r="E7" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="G7" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1">
@@ -815,8 +847,9 @@
       <c r="E8" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -832,9 +865,12 @@
       <c r="E9" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="G9" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1">
@@ -849,8 +885,9 @@
       <c r="E10" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,9 +903,12 @@
       <c r="E11" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="G11" s="1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1">
@@ -883,9 +923,10 @@
       <c r="E12" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1">
@@ -900,8 +941,9 @@
       <c r="E13" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -917,8 +959,11 @@
       <c r="E14" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -934,8 +979,11 @@
       <c r="E15" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -951,8 +999,11 @@
       <c r="E16" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -968,8 +1019,11 @@
       <c r="E17" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" s="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -985,9 +1039,12 @@
       <c r="E18" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="G18" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1">
@@ -1002,8 +1059,11 @@
       <c r="E19" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" s="1">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1019,9 +1079,12 @@
       <c r="E20" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="G20" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1">
@@ -1036,8 +1099,11 @@
       <c r="E21" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1053,8 +1119,11 @@
       <c r="E22" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1070,8 +1139,11 @@
       <c r="E23" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1086,6 +1158,15 @@
       </c>
       <c r="E24" s="1" t="s">
         <v>91</v>
+      </c>
+      <c r="G24" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <f>SUM(G2:G24)</f>
+        <v>3073</v>
       </c>
     </row>
   </sheetData>
